--- a/data/output/FV2404_FV2310/UTILMD/55043.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55043.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22157" uniqueCount="1192">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22178" uniqueCount="1192">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3832,6 +3832,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1404" totalsRowShown="0">
+  <autoFilter ref="A1:U1404"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4121,7 +4151,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U1404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -60400,5 +60433,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55043.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55043.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26137" uniqueCount="2574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25963" uniqueCount="2574">
   <si>
     <t>#</t>
   </si>
@@ -14050,9 +14050,7 @@
         <v>678</v>
       </c>
       <c r="K111" s="2"/>
-      <c r="L111" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L111" s="7"/>
       <c r="M111" s="2" t="s">
         <v>45</v>
       </c>
@@ -14106,9 +14104,7 @@
         <v>678</v>
       </c>
       <c r="K112" s="2"/>
-      <c r="L112" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L112" s="7"/>
       <c r="M112" s="2" t="s">
         <v>45</v>
       </c>
@@ -14162,9 +14158,7 @@
         <v>678</v>
       </c>
       <c r="K113" s="2"/>
-      <c r="L113" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L113" s="7"/>
       <c r="M113" s="2" t="s">
         <v>45</v>
       </c>
@@ -14604,9 +14598,7 @@
         <v>678</v>
       </c>
       <c r="K121" s="2"/>
-      <c r="L121" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L121" s="7"/>
       <c r="M121" s="2" t="s">
         <v>47</v>
       </c>
@@ -14857,46 +14849,44 @@
       </c>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="5" t="s">
         <v>1307</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2" t="s">
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="K126" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="L126" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M126" s="2" t="s">
+      <c r="L126" s="7"/>
+      <c r="M126" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N126" s="2" t="s">
+      <c r="N126" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2" t="s">
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="V126" s="2" t="s">
+      <c r="V126" s="5" t="s">
         <v>840</v>
       </c>
     </row>
@@ -15167,44 +15157,42 @@
       </c>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="5" t="s">
         <v>1313</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2" t="s">
+      <c r="C132" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K132" s="2"/>
-      <c r="L132" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M132" s="2" t="s">
+      <c r="K132" s="5"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N132" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="2"/>
-      <c r="S132" s="2"/>
-      <c r="T132" s="2"/>
-      <c r="U132" s="2" t="s">
+      <c r="N132" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="5"/>
+      <c r="S132" s="5"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V132" s="2"/>
+      <c r="V132" s="5"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="2" t="s">
@@ -15396,9 +15384,7 @@
         <v>678</v>
       </c>
       <c r="K136" s="2"/>
-      <c r="L136" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L136" s="7"/>
       <c r="M136" s="2" t="s">
         <v>51</v>
       </c>
@@ -15425,44 +15411,42 @@
       <c r="V136" s="2"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2" t="s">
+      <c r="C137" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K137" s="2"/>
-      <c r="L137" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M137" s="2" t="s">
+      <c r="K137" s="5"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N137" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="2"/>
-      <c r="R137" s="2"/>
-      <c r="S137" s="2"/>
-      <c r="T137" s="2"/>
-      <c r="U137" s="2" t="s">
+      <c r="N137" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V137" s="2"/>
+      <c r="V137" s="5"/>
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="2" t="s">
@@ -15855,46 +15839,44 @@
       <c r="V145" s="9"/>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="5" t="s">
         <v>1326</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2" t="s">
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="L146" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M146" s="2" t="s">
+      <c r="L146" s="7"/>
+      <c r="M146" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N146" s="2" t="s">
+      <c r="N146" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
-      <c r="T146" s="2"/>
-      <c r="U146" s="2" t="s">
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="V146" s="2" t="s">
+      <c r="V146" s="5" t="s">
         <v>841</v>
       </c>
     </row>
@@ -16381,44 +16363,42 @@
       <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="5" t="s">
         <v>1336</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2" t="s">
+      <c r="C156" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K156" s="2"/>
-      <c r="L156" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M156" s="2" t="s">
+      <c r="K156" s="5"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N156" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2" t="s">
+      <c r="N156" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V156" s="2"/>
+      <c r="V156" s="5"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="2" t="s">
@@ -16629,44 +16609,42 @@
       <c r="V160" s="2"/>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2" t="s">
+      <c r="C161" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K161" s="2"/>
-      <c r="L161" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M161" s="2" t="s">
+      <c r="K161" s="5"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N161" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="2"/>
-      <c r="R161" s="2"/>
-      <c r="S161" s="2"/>
-      <c r="T161" s="2"/>
-      <c r="U161" s="2" t="s">
+      <c r="N161" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V161" s="2"/>
+      <c r="V161" s="5"/>
     </row>
     <row r="162" spans="1:22">
       <c r="A162" s="2" t="s">
@@ -16904,9 +16882,7 @@
         <v>709</v>
       </c>
       <c r="K166" s="2"/>
-      <c r="L166" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L166" s="7"/>
       <c r="M166" s="2" t="s">
         <v>57</v>
       </c>
@@ -16933,46 +16909,44 @@
       <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="5" t="s">
         <v>1347</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2" t="s">
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="K167" s="2" t="s">
+      <c r="K167" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="L167" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M167" s="2" t="s">
+      <c r="L167" s="7"/>
+      <c r="M167" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N167" s="2" t="s">
+      <c r="N167" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="2"/>
-      <c r="S167" s="2"/>
-      <c r="T167" s="2"/>
-      <c r="U167" s="2" t="s">
+      <c r="O167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="5"/>
+      <c r="S167" s="5"/>
+      <c r="T167" s="5"/>
+      <c r="U167" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="V167" s="2" t="s">
+      <c r="V167" s="5" t="s">
         <v>841</v>
       </c>
     </row>
@@ -17463,46 +17437,44 @@
       <c r="V176" s="2"/>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2" t="s">
+      <c r="C177" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="K177" s="2" t="s">
+      <c r="K177" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="L177" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M177" s="2" t="s">
+      <c r="L177" s="7"/>
+      <c r="M177" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N177" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
-      <c r="U177" s="2" t="s">
+      <c r="N177" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O177" s="5"/>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="5"/>
+      <c r="S177" s="5"/>
+      <c r="T177" s="5"/>
+      <c r="U177" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="V177" s="2" t="s">
+      <c r="V177" s="5" t="s">
         <v>843</v>
       </c>
     </row>
@@ -17665,44 +17637,42 @@
       <c r="V180" s="2"/>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="5" t="s">
         <v>1361</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2" t="s">
+      <c r="C181" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K181" s="2"/>
-      <c r="L181" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M181" s="2" t="s">
+      <c r="K181" s="5"/>
+      <c r="L181" s="7"/>
+      <c r="M181" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N181" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="2"/>
-      <c r="S181" s="2"/>
-      <c r="T181" s="2"/>
-      <c r="U181" s="2" t="s">
+      <c r="N181" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="5"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V181" s="2"/>
+      <c r="V181" s="5"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="2" t="s">
@@ -17940,9 +17910,7 @@
         <v>678</v>
       </c>
       <c r="K186" s="2"/>
-      <c r="L186" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L186" s="7"/>
       <c r="M186" s="2" t="s">
         <v>61</v>
       </c>
@@ -18023,44 +17991,42 @@
       <c r="V187" s="2"/>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="5" t="s">
         <v>1368</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2" t="s">
+      <c r="C188" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K188" s="2"/>
-      <c r="L188" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M188" s="2" t="s">
+      <c r="K188" s="5"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N188" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" s="2"/>
-      <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
-      <c r="U188" s="2" t="s">
+      <c r="N188" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O188" s="5"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
+      <c r="R188" s="5"/>
+      <c r="S188" s="5"/>
+      <c r="T188" s="5"/>
+      <c r="U188" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V188" s="2"/>
+      <c r="V188" s="5"/>
     </row>
     <row r="189" spans="1:22">
       <c r="A189" s="2" t="s">
@@ -18194,9 +18160,7 @@
         <v>681</v>
       </c>
       <c r="K191" s="2"/>
-      <c r="L191" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L191" s="7"/>
       <c r="M191" s="2" t="s">
         <v>62</v>
       </c>
@@ -18223,46 +18187,44 @@
       <c r="V191" s="2"/>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="5" t="s">
         <v>1372</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-      <c r="J192" s="2" t="s">
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="K192" s="2" t="s">
+      <c r="K192" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="L192" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M192" s="2" t="s">
+      <c r="L192" s="7"/>
+      <c r="M192" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N192" s="2" t="s">
+      <c r="N192" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" s="2"/>
-      <c r="R192" s="2"/>
-      <c r="S192" s="2"/>
-      <c r="T192" s="2"/>
-      <c r="U192" s="2" t="s">
+      <c r="O192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
+      <c r="R192" s="5"/>
+      <c r="S192" s="5"/>
+      <c r="T192" s="5"/>
+      <c r="U192" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="V192" s="2" t="s">
+      <c r="V192" s="5" t="s">
         <v>844</v>
       </c>
     </row>
@@ -18533,46 +18495,44 @@
       </c>
     </row>
     <row r="198" spans="1:22">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="5" t="s">
         <v>1378</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
-      <c r="J198" s="2" t="s">
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="K198" s="2" t="s">
+      <c r="K198" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="L198" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M198" s="2" t="s">
+      <c r="L198" s="7"/>
+      <c r="M198" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N198" s="2" t="s">
+      <c r="N198" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="O198" s="2"/>
-      <c r="P198" s="2"/>
-      <c r="Q198" s="2"/>
-      <c r="R198" s="2"/>
-      <c r="S198" s="2"/>
-      <c r="T198" s="2"/>
-      <c r="U198" s="2" t="s">
+      <c r="O198" s="5"/>
+      <c r="P198" s="5"/>
+      <c r="Q198" s="5"/>
+      <c r="R198" s="5"/>
+      <c r="S198" s="5"/>
+      <c r="T198" s="5"/>
+      <c r="U198" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="V198" s="2" t="s">
+      <c r="V198" s="5" t="s">
         <v>845</v>
       </c>
     </row>
@@ -18708,9 +18668,7 @@
         <v>678</v>
       </c>
       <c r="K201" s="2"/>
-      <c r="L201" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L201" s="7"/>
       <c r="M201" s="2" t="s">
         <v>65</v>
       </c>
@@ -18882,9 +18840,7 @@
       <c r="K204" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="L204" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L204" s="7"/>
       <c r="M204" s="2" t="s">
         <v>65</v>
       </c>
@@ -19177,44 +19133,42 @@
       <c r="V209" s="2"/>
     </row>
     <row r="210" spans="1:22">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="5" t="s">
         <v>1390</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2" t="s">
+      <c r="C210" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K210" s="2"/>
-      <c r="L210" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M210" s="2" t="s">
+      <c r="K210" s="5"/>
+      <c r="L210" s="7"/>
+      <c r="M210" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N210" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2" t="s">
+      <c r="N210" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+      <c r="R210" s="5"/>
+      <c r="S210" s="5"/>
+      <c r="T210" s="5"/>
+      <c r="U210" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V210" s="2"/>
+      <c r="V210" s="5"/>
     </row>
     <row r="211" spans="1:22">
       <c r="A211" s="2" t="s">
@@ -19406,9 +19360,7 @@
         <v>678</v>
       </c>
       <c r="K214" s="2"/>
-      <c r="L214" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L214" s="7"/>
       <c r="M214" s="2" t="s">
         <v>67</v>
       </c>
@@ -19435,44 +19387,42 @@
       <c r="V214" s="2"/>
     </row>
     <row r="215" spans="1:22">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2" t="s">
+      <c r="C215" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K215" s="2"/>
-      <c r="L215" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M215" s="2" t="s">
+      <c r="K215" s="5"/>
+      <c r="L215" s="7"/>
+      <c r="M215" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N215" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
-      <c r="Q215" s="2"/>
-      <c r="R215" s="2"/>
-      <c r="S215" s="2"/>
-      <c r="T215" s="2"/>
-      <c r="U215" s="2" t="s">
+      <c r="N215" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O215" s="5"/>
+      <c r="P215" s="5"/>
+      <c r="Q215" s="5"/>
+      <c r="R215" s="5"/>
+      <c r="S215" s="5"/>
+      <c r="T215" s="5"/>
+      <c r="U215" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V215" s="2"/>
+      <c r="V215" s="5"/>
     </row>
     <row r="216" spans="1:22">
       <c r="A216" s="2" t="s">
@@ -20150,9 +20100,7 @@
         <v>678</v>
       </c>
       <c r="K228" s="2"/>
-      <c r="L228" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L228" s="7"/>
       <c r="M228" s="2" t="s">
         <v>53</v>
       </c>
@@ -20307,44 +20255,42 @@
       <c r="V231" s="9"/>
     </row>
     <row r="232" spans="1:22">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2" t="s">
+      <c r="C232" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K232" s="2"/>
-      <c r="L232" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M232" s="2" t="s">
+      <c r="K232" s="5"/>
+      <c r="L232" s="7"/>
+      <c r="M232" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N232" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
-      <c r="Q232" s="2"/>
-      <c r="R232" s="2"/>
-      <c r="S232" s="2"/>
-      <c r="T232" s="2"/>
-      <c r="U232" s="2" t="s">
+      <c r="N232" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O232" s="5"/>
+      <c r="P232" s="5"/>
+      <c r="Q232" s="5"/>
+      <c r="R232" s="5"/>
+      <c r="S232" s="5"/>
+      <c r="T232" s="5"/>
+      <c r="U232" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V232" s="2"/>
+      <c r="V232" s="5"/>
     </row>
     <row r="233" spans="1:22">
       <c r="A233" s="2" t="s">
@@ -20582,9 +20528,7 @@
         <v>678</v>
       </c>
       <c r="K237" s="2"/>
-      <c r="L237" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L237" s="7"/>
       <c r="M237" s="2" t="s">
         <v>70</v>
       </c>
@@ -20638,9 +20582,7 @@
         <v>678</v>
       </c>
       <c r="K238" s="2"/>
-      <c r="L238" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L238" s="7"/>
       <c r="M238" s="2" t="s">
         <v>70</v>
       </c>
@@ -20694,9 +20636,7 @@
         <v>678</v>
       </c>
       <c r="K239" s="2"/>
-      <c r="L239" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L239" s="7"/>
       <c r="M239" s="2" t="s">
         <v>70</v>
       </c>
@@ -20723,44 +20663,42 @@
       <c r="V239" s="2"/>
     </row>
     <row r="240" spans="1:22">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="5" t="s">
         <v>1420</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2" t="s">
+      <c r="C240" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K240" s="2"/>
-      <c r="L240" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M240" s="2" t="s">
+      <c r="K240" s="5"/>
+      <c r="L240" s="7"/>
+      <c r="M240" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N240" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O240" s="2"/>
-      <c r="P240" s="2"/>
-      <c r="Q240" s="2"/>
-      <c r="R240" s="2"/>
-      <c r="S240" s="2"/>
-      <c r="T240" s="2"/>
-      <c r="U240" s="2" t="s">
+      <c r="N240" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O240" s="5"/>
+      <c r="P240" s="5"/>
+      <c r="Q240" s="5"/>
+      <c r="R240" s="5"/>
+      <c r="S240" s="5"/>
+      <c r="T240" s="5"/>
+      <c r="U240" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V240" s="2"/>
+      <c r="V240" s="5"/>
     </row>
     <row r="241" spans="1:22">
       <c r="A241" s="2" t="s">
@@ -20998,9 +20936,7 @@
         <v>678</v>
       </c>
       <c r="K245" s="2"/>
-      <c r="L245" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L245" s="7"/>
       <c r="M245" s="2" t="s">
         <v>71</v>
       </c>
@@ -21027,44 +20963,42 @@
       <c r="V245" s="2"/>
     </row>
     <row r="246" spans="1:22">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2" t="s">
+      <c r="C246" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K246" s="2"/>
-      <c r="L246" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M246" s="2" t="s">
+      <c r="K246" s="5"/>
+      <c r="L246" s="7"/>
+      <c r="M246" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N246" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O246" s="2"/>
-      <c r="P246" s="2"/>
-      <c r="Q246" s="2"/>
-      <c r="R246" s="2"/>
-      <c r="S246" s="2"/>
-      <c r="T246" s="2"/>
-      <c r="U246" s="2" t="s">
+      <c r="N246" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O246" s="5"/>
+      <c r="P246" s="5"/>
+      <c r="Q246" s="5"/>
+      <c r="R246" s="5"/>
+      <c r="S246" s="5"/>
+      <c r="T246" s="5"/>
+      <c r="U246" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V246" s="2"/>
+      <c r="V246" s="5"/>
     </row>
     <row r="247" spans="1:22">
       <c r="A247" s="2" t="s">
@@ -21256,9 +21190,7 @@
         <v>678</v>
       </c>
       <c r="K250" s="2"/>
-      <c r="L250" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L250" s="7"/>
       <c r="M250" s="2" t="s">
         <v>72</v>
       </c>
@@ -21285,44 +21217,42 @@
       <c r="V250" s="2"/>
     </row>
     <row r="251" spans="1:22">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2" t="s">
+      <c r="C251" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K251" s="2"/>
-      <c r="L251" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M251" s="2" t="s">
+      <c r="K251" s="5"/>
+      <c r="L251" s="7"/>
+      <c r="M251" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N251" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O251" s="2"/>
-      <c r="P251" s="2"/>
-      <c r="Q251" s="2"/>
-      <c r="R251" s="2"/>
-      <c r="S251" s="2"/>
-      <c r="T251" s="2"/>
-      <c r="U251" s="2" t="s">
+      <c r="N251" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O251" s="5"/>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="5"/>
+      <c r="R251" s="5"/>
+      <c r="S251" s="5"/>
+      <c r="T251" s="5"/>
+      <c r="U251" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V251" s="2"/>
+      <c r="V251" s="5"/>
     </row>
     <row r="252" spans="1:22">
       <c r="A252" s="2" t="s">
@@ -21456,9 +21386,7 @@
         <v>678</v>
       </c>
       <c r="K254" s="2"/>
-      <c r="L254" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L254" s="7"/>
       <c r="M254" s="2" t="s">
         <v>73</v>
       </c>
@@ -21620,9 +21548,7 @@
         <v>681</v>
       </c>
       <c r="K257" s="2"/>
-      <c r="L257" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L257" s="7"/>
       <c r="M257" s="2" t="s">
         <v>74</v>
       </c>
@@ -21676,9 +21602,7 @@
         <v>681</v>
       </c>
       <c r="K258" s="2"/>
-      <c r="L258" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L258" s="7"/>
       <c r="M258" s="2" t="s">
         <v>74</v>
       </c>
@@ -21705,46 +21629,44 @@
       <c r="V258" s="2"/>
     </row>
     <row r="259" spans="1:22">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="5" t="s">
         <v>1439</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
-      <c r="I259" s="2"/>
-      <c r="J259" s="2" t="s">
+      <c r="C259" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="K259" s="2" t="s">
+      <c r="K259" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="L259" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M259" s="2" t="s">
+      <c r="L259" s="7"/>
+      <c r="M259" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N259" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O259" s="2"/>
-      <c r="P259" s="2"/>
-      <c r="Q259" s="2"/>
-      <c r="R259" s="2"/>
-      <c r="S259" s="2"/>
-      <c r="T259" s="2"/>
-      <c r="U259" s="2" t="s">
+      <c r="N259" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O259" s="5"/>
+      <c r="P259" s="5"/>
+      <c r="Q259" s="5"/>
+      <c r="R259" s="5"/>
+      <c r="S259" s="5"/>
+      <c r="T259" s="5"/>
+      <c r="U259" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="V259" s="2" t="s">
+      <c r="V259" s="5" t="s">
         <v>854</v>
       </c>
     </row>
@@ -21984,9 +21906,7 @@
         <v>678</v>
       </c>
       <c r="K264" s="2"/>
-      <c r="L264" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L264" s="7"/>
       <c r="M264" s="2" t="s">
         <v>76</v>
       </c>
@@ -22040,9 +21960,7 @@
         <v>678</v>
       </c>
       <c r="K265" s="2"/>
-      <c r="L265" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L265" s="7"/>
       <c r="M265" s="2" t="s">
         <v>76</v>
       </c>
@@ -22096,9 +22014,7 @@
         <v>678</v>
       </c>
       <c r="K266" s="2"/>
-      <c r="L266" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L266" s="7"/>
       <c r="M266" s="2" t="s">
         <v>76</v>
       </c>
@@ -22152,9 +22068,7 @@
         <v>678</v>
       </c>
       <c r="K267" s="2"/>
-      <c r="L267" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L267" s="7"/>
       <c r="M267" s="2" t="s">
         <v>76</v>
       </c>
@@ -22181,46 +22095,44 @@
       <c r="V267" s="2"/>
     </row>
     <row r="268" spans="1:22">
-      <c r="A268" s="2" t="s">
+      <c r="A268" s="5" t="s">
         <v>1447</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2" t="s">
+      <c r="C268" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="K268" s="2" t="s">
+      <c r="K268" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="L268" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M268" s="2" t="s">
+      <c r="L268" s="7"/>
+      <c r="M268" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N268" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O268" s="2"/>
-      <c r="P268" s="2"/>
-      <c r="Q268" s="2"/>
-      <c r="R268" s="2"/>
-      <c r="S268" s="2"/>
-      <c r="T268" s="2"/>
-      <c r="U268" s="2" t="s">
+      <c r="N268" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O268" s="5"/>
+      <c r="P268" s="5"/>
+      <c r="Q268" s="5"/>
+      <c r="R268" s="5"/>
+      <c r="S268" s="5"/>
+      <c r="T268" s="5"/>
+      <c r="U268" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="V268" s="2" t="s">
+      <c r="V268" s="5" t="s">
         <v>855</v>
       </c>
     </row>
@@ -22414,9 +22326,7 @@
         <v>678</v>
       </c>
       <c r="K272" s="2"/>
-      <c r="L272" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L272" s="7"/>
       <c r="M272" s="2" t="s">
         <v>77</v>
       </c>
@@ -22443,46 +22353,44 @@
       <c r="V272" s="2"/>
     </row>
     <row r="273" spans="1:22">
-      <c r="A273" s="2" t="s">
+      <c r="A273" s="5" t="s">
         <v>1452</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2" t="s">
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
+      <c r="I273" s="5"/>
+      <c r="J273" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="K273" s="2" t="s">
+      <c r="K273" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="L273" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M273" s="2" t="s">
+      <c r="L273" s="7"/>
+      <c r="M273" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N273" s="2" t="s">
+      <c r="N273" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O273" s="2"/>
-      <c r="P273" s="2"/>
-      <c r="Q273" s="2"/>
-      <c r="R273" s="2"/>
-      <c r="S273" s="2"/>
-      <c r="T273" s="2"/>
-      <c r="U273" s="2" t="s">
+      <c r="O273" s="5"/>
+      <c r="P273" s="5"/>
+      <c r="Q273" s="5"/>
+      <c r="R273" s="5"/>
+      <c r="S273" s="5"/>
+      <c r="T273" s="5"/>
+      <c r="U273" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="V273" s="2" t="s">
+      <c r="V273" s="5" t="s">
         <v>856</v>
       </c>
     </row>
@@ -22973,46 +22881,44 @@
       <c r="V282" s="2"/>
     </row>
     <row r="283" spans="1:22">
-      <c r="A283" s="2" t="s">
+      <c r="A283" s="5" t="s">
         <v>1462</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C283" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
-      <c r="J283" s="2" t="s">
+      <c r="C283" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="K283" s="2" t="s">
+      <c r="K283" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="L283" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M283" s="2" t="s">
+      <c r="L283" s="7"/>
+      <c r="M283" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N283" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O283" s="2"/>
-      <c r="P283" s="2"/>
-      <c r="Q283" s="2"/>
-      <c r="R283" s="2"/>
-      <c r="S283" s="2"/>
-      <c r="T283" s="2"/>
-      <c r="U283" s="2" t="s">
+      <c r="N283" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O283" s="5"/>
+      <c r="P283" s="5"/>
+      <c r="Q283" s="5"/>
+      <c r="R283" s="5"/>
+      <c r="S283" s="5"/>
+      <c r="T283" s="5"/>
+      <c r="U283" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="V283" s="2" t="s">
+      <c r="V283" s="5" t="s">
         <v>858</v>
       </c>
     </row>
@@ -23150,9 +23056,7 @@
       <c r="K286" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="L286" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L286" s="7"/>
       <c r="M286" s="2" t="s">
         <v>79</v>
       </c>
@@ -23239,44 +23143,42 @@
       </c>
     </row>
     <row r="288" spans="1:22">
-      <c r="A288" s="2" t="s">
+      <c r="A288" s="5" t="s">
         <v>1467</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="2"/>
-      <c r="G288" s="2"/>
-      <c r="H288" s="2"/>
-      <c r="I288" s="2"/>
-      <c r="J288" s="2" t="s">
+      <c r="C288" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K288" s="2"/>
-      <c r="L288" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M288" s="2" t="s">
+      <c r="K288" s="5"/>
+      <c r="L288" s="7"/>
+      <c r="M288" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N288" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O288" s="2"/>
-      <c r="P288" s="2"/>
-      <c r="Q288" s="2"/>
-      <c r="R288" s="2"/>
-      <c r="S288" s="2"/>
-      <c r="T288" s="2"/>
-      <c r="U288" s="2" t="s">
+      <c r="N288" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O288" s="5"/>
+      <c r="P288" s="5"/>
+      <c r="Q288" s="5"/>
+      <c r="R288" s="5"/>
+      <c r="S288" s="5"/>
+      <c r="T288" s="5"/>
+      <c r="U288" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V288" s="2"/>
+      <c r="V288" s="5"/>
     </row>
     <row r="289" spans="1:22">
       <c r="A289" s="2" t="s">
@@ -23514,9 +23416,7 @@
         <v>731</v>
       </c>
       <c r="K293" s="2"/>
-      <c r="L293" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L293" s="7"/>
       <c r="M293" s="2" t="s">
         <v>81</v>
       </c>
@@ -23570,9 +23470,7 @@
         <v>732</v>
       </c>
       <c r="K294" s="2"/>
-      <c r="L294" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L294" s="7"/>
       <c r="M294" s="2" t="s">
         <v>81</v>
       </c>
@@ -23626,9 +23524,7 @@
         <v>733</v>
       </c>
       <c r="K295" s="2"/>
-      <c r="L295" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L295" s="7"/>
       <c r="M295" s="2" t="s">
         <v>81</v>
       </c>
@@ -23682,9 +23578,7 @@
         <v>734</v>
       </c>
       <c r="K296" s="2"/>
-      <c r="L296" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L296" s="7"/>
       <c r="M296" s="2" t="s">
         <v>81</v>
       </c>
@@ -23738,9 +23632,7 @@
         <v>735</v>
       </c>
       <c r="K297" s="2"/>
-      <c r="L297" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L297" s="7"/>
       <c r="M297" s="2" t="s">
         <v>81</v>
       </c>
@@ -23767,44 +23659,42 @@
       <c r="V297" s="2"/>
     </row>
     <row r="298" spans="1:22">
-      <c r="A298" s="2" t="s">
+      <c r="A298" s="5" t="s">
         <v>1476</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C298" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-      <c r="F298" s="2"/>
-      <c r="G298" s="2"/>
-      <c r="H298" s="2"/>
-      <c r="I298" s="2"/>
-      <c r="J298" s="2" t="s">
+      <c r="C298" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K298" s="2"/>
-      <c r="L298" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M298" s="2" t="s">
+      <c r="K298" s="5"/>
+      <c r="L298" s="7"/>
+      <c r="M298" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N298" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O298" s="2"/>
-      <c r="P298" s="2"/>
-      <c r="Q298" s="2"/>
-      <c r="R298" s="2"/>
-      <c r="S298" s="2"/>
-      <c r="T298" s="2"/>
-      <c r="U298" s="2" t="s">
+      <c r="N298" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O298" s="5"/>
+      <c r="P298" s="5"/>
+      <c r="Q298" s="5"/>
+      <c r="R298" s="5"/>
+      <c r="S298" s="5"/>
+      <c r="T298" s="5"/>
+      <c r="U298" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V298" s="2"/>
+      <c r="V298" s="5"/>
     </row>
     <row r="299" spans="1:22">
       <c r="A299" s="2" t="s">
@@ -24042,9 +23932,7 @@
         <v>737</v>
       </c>
       <c r="K303" s="2"/>
-      <c r="L303" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L303" s="7"/>
       <c r="M303" s="2" t="s">
         <v>81</v>
       </c>
@@ -24098,9 +23986,7 @@
         <v>732</v>
       </c>
       <c r="K304" s="2"/>
-      <c r="L304" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L304" s="7"/>
       <c r="M304" s="2" t="s">
         <v>81</v>
       </c>
@@ -24154,9 +24040,7 @@
         <v>738</v>
       </c>
       <c r="K305" s="2"/>
-      <c r="L305" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L305" s="7"/>
       <c r="M305" s="2" t="s">
         <v>81</v>
       </c>
@@ -24210,9 +24094,7 @@
         <v>739</v>
       </c>
       <c r="K306" s="2"/>
-      <c r="L306" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L306" s="7"/>
       <c r="M306" s="2" t="s">
         <v>81</v>
       </c>
@@ -24266,9 +24148,7 @@
         <v>735</v>
       </c>
       <c r="K307" s="2"/>
-      <c r="L307" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L307" s="7"/>
       <c r="M307" s="2" t="s">
         <v>81</v>
       </c>
@@ -24295,46 +24175,44 @@
       <c r="V307" s="2"/>
     </row>
     <row r="308" spans="1:22">
-      <c r="A308" s="2" t="s">
+      <c r="A308" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C308" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D308" s="2"/>
-      <c r="E308" s="2"/>
-      <c r="F308" s="2"/>
-      <c r="G308" s="2"/>
-      <c r="H308" s="2"/>
-      <c r="I308" s="2"/>
-      <c r="J308" s="2" t="s">
+      <c r="C308" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="5"/>
+      <c r="I308" s="5"/>
+      <c r="J308" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="K308" s="2" t="s">
+      <c r="K308" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="L308" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M308" s="2" t="s">
+      <c r="L308" s="7"/>
+      <c r="M308" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N308" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O308" s="2"/>
-      <c r="P308" s="2"/>
-      <c r="Q308" s="2"/>
-      <c r="R308" s="2"/>
-      <c r="S308" s="2"/>
-      <c r="T308" s="2"/>
-      <c r="U308" s="2" t="s">
+      <c r="N308" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O308" s="5"/>
+      <c r="P308" s="5"/>
+      <c r="Q308" s="5"/>
+      <c r="R308" s="5"/>
+      <c r="S308" s="5"/>
+      <c r="T308" s="5"/>
+      <c r="U308" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="V308" s="2" t="s">
+      <c r="V308" s="5" t="s">
         <v>861</v>
       </c>
     </row>
@@ -24574,9 +24452,7 @@
         <v>709</v>
       </c>
       <c r="K313" s="2"/>
-      <c r="L313" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L313" s="7"/>
       <c r="M313" s="2" t="s">
         <v>81</v>
       </c>
@@ -24603,46 +24479,44 @@
       <c r="V313" s="2"/>
     </row>
     <row r="314" spans="1:22">
-      <c r="A314" s="2" t="s">
+      <c r="A314" s="5" t="s">
         <v>1491</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D314" s="2"/>
-      <c r="E314" s="2"/>
-      <c r="F314" s="2"/>
-      <c r="G314" s="2"/>
-      <c r="H314" s="2"/>
-      <c r="I314" s="2"/>
-      <c r="J314" s="2" t="s">
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="K314" s="2" t="s">
+      <c r="K314" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="L314" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M314" s="2" t="s">
+      <c r="L314" s="7"/>
+      <c r="M314" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N314" s="2" t="s">
+      <c r="N314" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O314" s="2"/>
-      <c r="P314" s="2"/>
-      <c r="Q314" s="2"/>
-      <c r="R314" s="2"/>
-      <c r="S314" s="2"/>
-      <c r="T314" s="2"/>
-      <c r="U314" s="2" t="s">
+      <c r="O314" s="5"/>
+      <c r="P314" s="5"/>
+      <c r="Q314" s="5"/>
+      <c r="R314" s="5"/>
+      <c r="S314" s="5"/>
+      <c r="T314" s="5"/>
+      <c r="U314" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="V314" s="2" t="s">
+      <c r="V314" s="5" t="s">
         <v>862</v>
       </c>
     </row>
@@ -25133,46 +25007,44 @@
       <c r="V323" s="2"/>
     </row>
     <row r="324" spans="1:22">
-      <c r="A324" s="2" t="s">
+      <c r="A324" s="5" t="s">
         <v>1501</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C324" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
-      <c r="F324" s="2"/>
-      <c r="G324" s="2"/>
-      <c r="H324" s="2"/>
-      <c r="I324" s="2"/>
-      <c r="J324" s="2" t="s">
+      <c r="C324" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="5"/>
+      <c r="I324" s="5"/>
+      <c r="J324" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="K324" s="2" t="s">
+      <c r="K324" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="L324" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M324" s="2" t="s">
+      <c r="L324" s="7"/>
+      <c r="M324" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N324" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O324" s="2"/>
-      <c r="P324" s="2"/>
-      <c r="Q324" s="2"/>
-      <c r="R324" s="2"/>
-      <c r="S324" s="2"/>
-      <c r="T324" s="2"/>
-      <c r="U324" s="2" t="s">
+      <c r="N324" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O324" s="5"/>
+      <c r="P324" s="5"/>
+      <c r="Q324" s="5"/>
+      <c r="R324" s="5"/>
+      <c r="S324" s="5"/>
+      <c r="T324" s="5"/>
+      <c r="U324" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="V324" s="2" t="s">
+      <c r="V324" s="5" t="s">
         <v>864</v>
       </c>
     </row>
@@ -25412,9 +25284,7 @@
         <v>678</v>
       </c>
       <c r="K329" s="2"/>
-      <c r="L329" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L329" s="7"/>
       <c r="M329" s="2" t="s">
         <v>86</v>
       </c>
@@ -25468,9 +25338,7 @@
         <v>678</v>
       </c>
       <c r="K330" s="2"/>
-      <c r="L330" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L330" s="7"/>
       <c r="M330" s="2" t="s">
         <v>86</v>
       </c>
@@ -25524,9 +25392,7 @@
         <v>678</v>
       </c>
       <c r="K331" s="2"/>
-      <c r="L331" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L331" s="7"/>
       <c r="M331" s="2" t="s">
         <v>86</v>
       </c>
@@ -25553,46 +25419,44 @@
       <c r="V331" s="2"/>
     </row>
     <row r="332" spans="1:22">
-      <c r="A332" s="2" t="s">
+      <c r="A332" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2"/>
-      <c r="F332" s="2"/>
-      <c r="G332" s="2"/>
-      <c r="H332" s="2"/>
-      <c r="I332" s="2"/>
-      <c r="J332" s="2" t="s">
+      <c r="C332" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
+      <c r="I332" s="5"/>
+      <c r="J332" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="K332" s="2" t="s">
+      <c r="K332" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="L332" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M332" s="2" t="s">
+      <c r="L332" s="7"/>
+      <c r="M332" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N332" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O332" s="2"/>
-      <c r="P332" s="2"/>
-      <c r="Q332" s="2"/>
-      <c r="R332" s="2"/>
-      <c r="S332" s="2"/>
-      <c r="T332" s="2"/>
-      <c r="U332" s="2" t="s">
+      <c r="N332" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O332" s="5"/>
+      <c r="P332" s="5"/>
+      <c r="Q332" s="5"/>
+      <c r="R332" s="5"/>
+      <c r="S332" s="5"/>
+      <c r="T332" s="5"/>
+      <c r="U332" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="V332" s="2" t="s">
+      <c r="V332" s="5" t="s">
         <v>865</v>
       </c>
     </row>
@@ -26069,44 +25933,42 @@
       <c r="V343" s="9"/>
     </row>
     <row r="344" spans="1:22">
-      <c r="A344" s="2" t="s">
+      <c r="A344" s="5" t="s">
         <v>1521</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
-      <c r="I344" s="2"/>
-      <c r="J344" s="2" t="s">
+      <c r="C344" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="5"/>
+      <c r="J344" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K344" s="2"/>
-      <c r="L344" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M344" s="2" t="s">
+      <c r="K344" s="5"/>
+      <c r="L344" s="7"/>
+      <c r="M344" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N344" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O344" s="2"/>
-      <c r="P344" s="2"/>
-      <c r="Q344" s="2"/>
-      <c r="R344" s="2"/>
-      <c r="S344" s="2"/>
-      <c r="T344" s="2"/>
-      <c r="U344" s="2" t="s">
+      <c r="N344" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O344" s="5"/>
+      <c r="P344" s="5"/>
+      <c r="Q344" s="5"/>
+      <c r="R344" s="5"/>
+      <c r="S344" s="5"/>
+      <c r="T344" s="5"/>
+      <c r="U344" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V344" s="2"/>
+      <c r="V344" s="5"/>
     </row>
     <row r="345" spans="1:22">
       <c r="A345" s="2" t="s">
@@ -26344,9 +26206,7 @@
         <v>747</v>
       </c>
       <c r="K349" s="2"/>
-      <c r="L349" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L349" s="7"/>
       <c r="M349" s="2" t="s">
         <v>57</v>
       </c>
@@ -26400,9 +26260,7 @@
         <v>748</v>
       </c>
       <c r="K350" s="2"/>
-      <c r="L350" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L350" s="7"/>
       <c r="M350" s="2" t="s">
         <v>57</v>
       </c>
@@ -26456,9 +26314,7 @@
         <v>749</v>
       </c>
       <c r="K351" s="2"/>
-      <c r="L351" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L351" s="7"/>
       <c r="M351" s="2" t="s">
         <v>57</v>
       </c>
@@ -26512,9 +26368,7 @@
         <v>750</v>
       </c>
       <c r="K352" s="2"/>
-      <c r="L352" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L352" s="7"/>
       <c r="M352" s="2" t="s">
         <v>57</v>
       </c>
@@ -26568,9 +26422,7 @@
         <v>735</v>
       </c>
       <c r="K353" s="2"/>
-      <c r="L353" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L353" s="7"/>
       <c r="M353" s="2" t="s">
         <v>57</v>
       </c>
@@ -26597,44 +26449,42 @@
       <c r="V353" s="2"/>
     </row>
     <row r="354" spans="1:22">
-      <c r="A354" s="2" t="s">
+      <c r="A354" s="5" t="s">
         <v>1531</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C354" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
-      <c r="G354" s="2"/>
-      <c r="H354" s="2"/>
-      <c r="I354" s="2"/>
-      <c r="J354" s="2" t="s">
+      <c r="C354" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
+      <c r="H354" s="5"/>
+      <c r="I354" s="5"/>
+      <c r="J354" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K354" s="2"/>
-      <c r="L354" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M354" s="2" t="s">
+      <c r="K354" s="5"/>
+      <c r="L354" s="7"/>
+      <c r="M354" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N354" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O354" s="2"/>
-      <c r="P354" s="2"/>
-      <c r="Q354" s="2"/>
-      <c r="R354" s="2"/>
-      <c r="S354" s="2"/>
-      <c r="T354" s="2"/>
-      <c r="U354" s="2" t="s">
+      <c r="N354" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O354" s="5"/>
+      <c r="P354" s="5"/>
+      <c r="Q354" s="5"/>
+      <c r="R354" s="5"/>
+      <c r="S354" s="5"/>
+      <c r="T354" s="5"/>
+      <c r="U354" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V354" s="2"/>
+      <c r="V354" s="5"/>
     </row>
     <row r="355" spans="1:22">
       <c r="A355" s="2" t="s">
@@ -26872,9 +26722,7 @@
         <v>752</v>
       </c>
       <c r="K359" s="2"/>
-      <c r="L359" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L359" s="7"/>
       <c r="M359" s="2" t="s">
         <v>57</v>
       </c>
@@ -26928,9 +26776,7 @@
         <v>748</v>
       </c>
       <c r="K360" s="2"/>
-      <c r="L360" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L360" s="7"/>
       <c r="M360" s="2" t="s">
         <v>57</v>
       </c>
@@ -26984,9 +26830,7 @@
         <v>753</v>
       </c>
       <c r="K361" s="2"/>
-      <c r="L361" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L361" s="7"/>
       <c r="M361" s="2" t="s">
         <v>57</v>
       </c>
@@ -27040,9 +26884,7 @@
         <v>754</v>
       </c>
       <c r="K362" s="2"/>
-      <c r="L362" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L362" s="7"/>
       <c r="M362" s="2" t="s">
         <v>57</v>
       </c>
@@ -27096,9 +26938,7 @@
         <v>735</v>
       </c>
       <c r="K363" s="2"/>
-      <c r="L363" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L363" s="7"/>
       <c r="M363" s="2" t="s">
         <v>57</v>
       </c>
@@ -27125,46 +26965,44 @@
       <c r="V363" s="2"/>
     </row>
     <row r="364" spans="1:22">
-      <c r="A364" s="2" t="s">
+      <c r="A364" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C364" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2"/>
-      <c r="F364" s="2"/>
-      <c r="G364" s="2"/>
-      <c r="H364" s="2"/>
-      <c r="I364" s="2"/>
-      <c r="J364" s="2" t="s">
+      <c r="C364" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="5"/>
+      <c r="I364" s="5"/>
+      <c r="J364" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="K364" s="2" t="s">
+      <c r="K364" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="L364" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M364" s="2" t="s">
+      <c r="L364" s="7"/>
+      <c r="M364" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N364" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O364" s="2"/>
-      <c r="P364" s="2"/>
-      <c r="Q364" s="2"/>
-      <c r="R364" s="2"/>
-      <c r="S364" s="2"/>
-      <c r="T364" s="2"/>
-      <c r="U364" s="2" t="s">
+      <c r="N364" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O364" s="5"/>
+      <c r="P364" s="5"/>
+      <c r="Q364" s="5"/>
+      <c r="R364" s="5"/>
+      <c r="S364" s="5"/>
+      <c r="T364" s="5"/>
+      <c r="U364" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="V364" s="2" t="s">
+      <c r="V364" s="5" t="s">
         <v>867</v>
       </c>
     </row>
@@ -27404,9 +27242,7 @@
         <v>709</v>
       </c>
       <c r="K369" s="2"/>
-      <c r="L369" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L369" s="7"/>
       <c r="M369" s="2" t="s">
         <v>57</v>
       </c>
@@ -27433,46 +27269,44 @@
       <c r="V369" s="2"/>
     </row>
     <row r="370" spans="1:22">
-      <c r="A370" s="2" t="s">
+      <c r="A370" s="5" t="s">
         <v>1547</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="C370" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D370" s="2"/>
-      <c r="E370" s="2"/>
-      <c r="F370" s="2"/>
-      <c r="G370" s="2"/>
-      <c r="H370" s="2"/>
-      <c r="I370" s="2"/>
-      <c r="J370" s="2" t="s">
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="5"/>
+      <c r="J370" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K370" s="2" t="s">
+      <c r="K370" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="L370" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M370" s="2" t="s">
+      <c r="L370" s="7"/>
+      <c r="M370" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N370" s="2" t="s">
+      <c r="N370" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O370" s="2"/>
-      <c r="P370" s="2"/>
-      <c r="Q370" s="2"/>
-      <c r="R370" s="2"/>
-      <c r="S370" s="2"/>
-      <c r="T370" s="2"/>
-      <c r="U370" s="2" t="s">
+      <c r="O370" s="5"/>
+      <c r="P370" s="5"/>
+      <c r="Q370" s="5"/>
+      <c r="R370" s="5"/>
+      <c r="S370" s="5"/>
+      <c r="T370" s="5"/>
+      <c r="U370" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V370" s="2" t="s">
+      <c r="V370" s="5" t="s">
         <v>868</v>
       </c>
     </row>
@@ -27959,44 +27793,42 @@
       <c r="V379" s="2"/>
     </row>
     <row r="380" spans="1:22">
-      <c r="A380" s="2" t="s">
+      <c r="A380" s="5" t="s">
         <v>1557</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C380" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D380" s="2"/>
-      <c r="E380" s="2"/>
-      <c r="F380" s="2"/>
-      <c r="G380" s="2"/>
-      <c r="H380" s="2"/>
-      <c r="I380" s="2"/>
-      <c r="J380" s="2" t="s">
+      <c r="C380" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
+      <c r="I380" s="5"/>
+      <c r="J380" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K380" s="2"/>
-      <c r="L380" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M380" s="2" t="s">
+      <c r="K380" s="5"/>
+      <c r="L380" s="7"/>
+      <c r="M380" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N380" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O380" s="2"/>
-      <c r="P380" s="2"/>
-      <c r="Q380" s="2"/>
-      <c r="R380" s="2"/>
-      <c r="S380" s="2"/>
-      <c r="T380" s="2"/>
-      <c r="U380" s="2" t="s">
+      <c r="N380" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O380" s="5"/>
+      <c r="P380" s="5"/>
+      <c r="Q380" s="5"/>
+      <c r="R380" s="5"/>
+      <c r="S380" s="5"/>
+      <c r="T380" s="5"/>
+      <c r="U380" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V380" s="2"/>
+      <c r="V380" s="5"/>
     </row>
     <row r="381" spans="1:22">
       <c r="A381" s="2" t="s">
@@ -35215,44 +35047,42 @@
       <c r="V555" s="9"/>
     </row>
     <row r="556" spans="1:22">
-      <c r="A556" s="2" t="s">
+      <c r="A556" s="5" t="s">
         <v>1733</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="B556" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C556" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D556" s="2"/>
-      <c r="E556" s="2"/>
-      <c r="F556" s="2"/>
-      <c r="G556" s="2"/>
-      <c r="H556" s="2"/>
-      <c r="I556" s="2"/>
-      <c r="J556" s="2" t="s">
+      <c r="C556" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D556" s="5"/>
+      <c r="E556" s="5"/>
+      <c r="F556" s="5"/>
+      <c r="G556" s="5"/>
+      <c r="H556" s="5"/>
+      <c r="I556" s="5"/>
+      <c r="J556" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K556" s="2"/>
-      <c r="L556" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M556" s="2" t="s">
+      <c r="K556" s="5"/>
+      <c r="L556" s="7"/>
+      <c r="M556" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N556" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O556" s="2"/>
-      <c r="P556" s="2"/>
-      <c r="Q556" s="2"/>
-      <c r="R556" s="2"/>
-      <c r="S556" s="2"/>
-      <c r="T556" s="2"/>
-      <c r="U556" s="2" t="s">
+      <c r="N556" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O556" s="5"/>
+      <c r="P556" s="5"/>
+      <c r="Q556" s="5"/>
+      <c r="R556" s="5"/>
+      <c r="S556" s="5"/>
+      <c r="T556" s="5"/>
+      <c r="U556" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V556" s="2"/>
+      <c r="V556" s="5"/>
     </row>
     <row r="557" spans="1:22">
       <c r="A557" s="2" t="s">
@@ -35386,9 +35216,7 @@
         <v>681</v>
       </c>
       <c r="K559" s="2"/>
-      <c r="L559" s="4" t="s">
-        <v>925</v>
-      </c>
+      <c r="L559" s="7"/>
       <c r="M559" s="2" t="s">
         <v>62</v>
       </c>
@@ -36339,44 +36167,42 @@
       </c>
     </row>
     <row r="583" spans="1:22">
-      <c r="A583" s="2" t="s">
+      <c r="A583" s="5" t="s">
         <v>1760</v>
       </c>
-      <c r="B583" s="2" t="s">
+      <c r="B583" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C583" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D583" s="2"/>
-      <c r="E583" s="2"/>
-      <c r="F583" s="2"/>
-      <c r="G583" s="2"/>
-      <c r="H583" s="2"/>
-      <c r="I583" s="2"/>
-      <c r="J583" s="2" t="s">
+      <c r="C583" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D583" s="5"/>
+      <c r="E583" s="5"/>
+      <c r="F583" s="5"/>
+      <c r="G583" s="5"/>
+      <c r="H583" s="5"/>
+      <c r="I583" s="5"/>
+      <c r="J583" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K583" s="2"/>
-      <c r="L583" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="M583" s="2" t="s">
+      <c r="K583" s="5"/>
+      <c r="L583" s="7"/>
+      <c r="M583" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N583" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O583" s="2"/>
-      <c r="P583" s="2"/>
-      <c r="Q583" s="2"/>
-      <c r="R583" s="2"/>
-      <c r="S583" s="2"/>
-      <c r="T583" s="2"/>
-      <c r="U583" s="2" t="s">
+      <c r="N583" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O583" s="5"/>
+      <c r="P583" s="5"/>
+      <c r="Q583" s="5"/>
+      <c r="R583" s="5"/>
+      <c r="S583" s="5"/>
+      <c r="T583" s="5"/>
+      <c r="U583" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="V583" s="2"/>
+      <c r="V583" s="5"/>
     </row>
     <row r="584" spans="1:22">
       <c r="A584" s="2" t="s">
